--- a/excel2mysql/excels/region.xlsx
+++ b/excel2mysql/excels/region.xlsx
@@ -19,24 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
     <t>标识</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>地区名</t>
   </si>
   <si>
     <t>parent_id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)||</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>state</t>
@@ -771,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -799,44 +808,44 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -847,13 +856,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -864,10 +873,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -881,10 +890,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -898,10 +907,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -915,10 +924,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -932,10 +941,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -949,10 +958,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -966,10 +975,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -983,10 +992,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1000,10 +1009,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1017,10 +1026,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1034,13 +1043,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1051,10 +1060,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1068,10 +1077,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1085,10 +1094,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1102,10 +1111,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1119,10 +1128,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1136,10 +1145,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1153,10 +1162,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1170,10 +1179,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1187,10 +1196,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1204,10 +1213,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1221,10 +1230,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1238,10 +1247,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1255,10 +1264,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1272,10 +1281,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1289,10 +1298,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1306,13 +1315,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1323,10 +1332,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1340,10 +1349,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1357,10 +1366,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1374,10 +1383,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1391,10 +1400,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1408,10 +1417,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1425,10 +1434,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1442,10 +1451,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1459,10 +1468,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1476,10 +1485,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1493,10 +1502,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1510,10 +1519,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1527,10 +1536,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1544,13 +1553,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1561,10 +1570,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1578,10 +1587,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1595,10 +1604,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1612,10 +1621,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1629,10 +1638,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1646,10 +1655,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1663,10 +1672,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1680,10 +1689,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1697,10 +1706,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1714,10 +1723,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1731,13 +1740,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1748,10 +1757,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1765,10 +1774,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1782,10 +1791,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1799,10 +1808,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -1816,10 +1825,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -1833,10 +1842,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -1850,10 +1859,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -1867,10 +1876,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -1884,13 +1893,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1901,10 +1910,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -1918,10 +1927,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1935,10 +1944,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -1952,10 +1961,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -1969,10 +1978,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1986,10 +1995,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -2003,10 +2012,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -2020,10 +2029,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -2037,10 +2046,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -2054,10 +2063,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -2071,10 +2080,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -2088,10 +2097,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -2105,10 +2114,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -2122,10 +2131,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C80">
         <v>7</v>
@@ -2139,13 +2148,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2156,10 +2165,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -2173,10 +2182,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83">
         <v>8</v>
@@ -2190,10 +2199,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C84">
         <v>8</v>
@@ -2207,10 +2216,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C85">
         <v>8</v>
@@ -2224,10 +2233,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -2241,10 +2250,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -2258,10 +2267,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C88">
         <v>8</v>
@@ -2275,10 +2284,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2292,13 +2301,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2309,10 +2318,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -2326,10 +2335,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -2343,10 +2352,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -2360,10 +2369,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -2377,10 +2386,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C95">
         <v>9</v>
@@ -2394,10 +2403,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -2411,10 +2420,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -2428,13 +2437,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2445,10 +2454,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C99">
         <v>10</v>
@@ -2462,10 +2471,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -2479,10 +2488,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -2496,10 +2505,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C102">
         <v>10</v>
@@ -2513,10 +2522,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -2530,10 +2539,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C104">
         <v>10</v>
@@ -2547,10 +2556,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C105">
         <v>10</v>
@@ -2564,10 +2573,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -2581,10 +2590,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -2598,10 +2607,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -2615,10 +2624,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C109">
         <v>10</v>
@@ -2632,10 +2641,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -2649,10 +2658,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C111">
         <v>10</v>
@@ -2666,10 +2675,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -2683,13 +2692,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2700,10 +2709,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C114">
         <v>11</v>
@@ -2717,10 +2726,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C115">
         <v>11</v>
@@ -2734,10 +2743,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -2751,10 +2760,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C117">
         <v>11</v>
@@ -2768,10 +2777,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C118">
         <v>11</v>
@@ -2785,10 +2794,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C119">
         <v>11</v>
@@ -2802,13 +2811,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2819,10 +2828,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -2836,10 +2845,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C122">
         <v>12</v>
@@ -2853,10 +2862,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C123">
         <v>12</v>
@@ -2870,10 +2879,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C124">
         <v>12</v>
@@ -2887,10 +2896,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C125">
         <v>12</v>
@@ -2904,10 +2913,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C126">
         <v>12</v>
@@ -2921,10 +2930,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C127">
         <v>12</v>
@@ -2938,10 +2947,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C128">
         <v>12</v>
@@ -2955,10 +2964,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C129">
         <v>12</v>
@@ -2972,13 +2981,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2989,10 +2998,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C131">
         <v>13</v>
@@ -3006,10 +3015,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C132">
         <v>13</v>
@@ -3023,10 +3032,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C133">
         <v>13</v>
@@ -3035,6 +3044,23 @@
         <v>0</v>
       </c>
       <c r="E133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
         <v>9</v>
       </c>
     </row>

--- a/excel2mysql/excels/region.xlsx
+++ b/excel2mysql/excels/region.xlsx
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>9</v>
+        <v>9537</v>
       </c>
     </row>
   </sheetData>
